--- a/data/merged_faq.xlsx
+++ b/data/merged_faq.xlsx
@@ -4275,9 +4275,6 @@
     <t>Can I use Avios to book hotels?</t>
   </si>
   <si>
-    <t>1-grange-blooms.png,2-doubletree-hilton.png,3-st-ermins-hotel.png,4-the-buckingham.png,5-dukes-hotel.png</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Yes you can. We have 100s of hotels available all over the world to suit any budget. You can &lt;strong&gt;&lt;span style='COLOR: #0040eb'&gt;&lt;a href='https://www.avios.com/gb/en_gb/travel/searchCriteriaHotels.do?searchType=searchHotels&amp;amp;from=faq' target='_blank'&gt;search for &amp;amp; book hotels &lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;on our website. &lt;/p&gt;&lt;p&gt;Look out for our Preferred Hotels, which we personally hand-pick and check annually. They're given a thumbs up symbol if they offer great quality and value for Avios&lt;/p&gt;&lt;p&gt;Can't find what you're looking for? We also work with a company called Superbreak who offer lots of UK and European hotels. You can check their availability by visiting &lt;a href='http://www.superbreak.com'&gt;www.superbreak.com&lt;/a&gt;. If you see anything you like on their website, you can use your Avios towards the cost by calling our Sales Team on &lt;strong&gt;0844 49 333 99&lt;/strong&gt;.&lt;/p&gt;</t>
   </si>
   <si>
@@ -5361,7 +5358,10 @@
     <t>https://www.youtube.com/watch?v=BD4RT5l_Pz0</t>
   </si>
   <si>
-    <t>&lt;h1&gt;Grange Blooms Hotel&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;An impressive 18th century townhouse, the Blooms Townhouse is uniquely set in the heart of Bloomsbury, next to the British Museum.&lt;/p&gt;,&lt;h1&gt;DoubleTree by Hilton Westminster&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;This fab modern hotels sits in the heart of Westminster, making it ideal for business and leisure, with Westminster Abbey, Tate Britain and the London Eye all nearby.&lt;/p&gt;|&lt;h1&gt;St Ermins Hotel&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;Wedged between Buckingham Palace and the Houses of Parliament, St Ermin’s Hotel has its own tree-lined courtyard.&lt;/p&gt;,&lt;h1&gt;The Buckingham&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;In London’s Bloomsbury district, known for its green garden squares, it’s little surprise that The Buckingham has its own private walled garden.&lt;/p&gt;|&lt;h1&gt;The Dukes Hotel&lt;/h1&gt;&lt;h2&gt;5 Star&lt;/h2&gt;&lt;p&gt;Nestled in a quiet Mayfair courtyard, Dukes London won AA Hotel of the Year London 2013/14 and England Leading Hotel 2013 at the European Travel Awards.&lt;/p&gt;</t>
+    <t>&lt;h1&gt;Grange Blooms Hotel&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;An impressive 18th century townhouse, the Blooms Townhouse is uniquely set in the heart of Bloomsbury, next to the British Museum.&lt;/p&gt;|&lt;h1&gt;DoubleTree by Hilton Westminster&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;This fab modern hotels sits in the heart of Westminster, making it ideal for business and leisure, with Westminster Abbey, Tate Britain and the London Eye all nearby.&lt;/p&gt;|&lt;h1&gt;St Ermins Hotel&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;Wedged between Buckingham Palace and the Houses of Parliament, St Ermin’s Hotel has its own tree-lined courtyard.&lt;/p&gt;|&lt;h1&gt;The Buckingham&lt;/h1&gt;&lt;h2&gt;4 Star&lt;/h2&gt;&lt;p&gt;In London’s Bloomsbury district, known for its green garden squares, it’s little surprise that The Buckingham has its own private walled garden.&lt;/p&gt;|&lt;h1&gt;The Dukes Hotel&lt;/h1&gt;&lt;h2&gt;5 Star&lt;/h2&gt;&lt;p&gt;Nestled in a quiet Mayfair courtyard, Dukes London won AA Hotel of the Year London 2013/14 and England Leading Hotel 2013 at the European Travel Awards.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>https://showandstay.s3.amazonaws.com/images/hotels/large/grange-blooms-townhouse-exterior.jpg,https://doubletree3.hilton.com/resources/media/dt/LHRLBDI/en_US/img/shared/full_page_image_gallery/main/HL_hotel_exterior_677x380_FitToBoxSmallDimension_Center.jpg,https://r-ec.bstatic.com/images/hotel/max300/190/19068733.jpg,https://www.hotel-r.net/im/hotel/us/the-buckingham-hotel.jpg,https://www.dukeshotel.com/static/img/slider/1.jpg</t>
   </si>
 </sst>
 </file>
@@ -6292,9 +6292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X615"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L489" sqref="L489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17722,14 +17722,14 @@
       <c r="G488" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="L488" s="14" t="s">
+      <c r="L488" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M488" s="14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="N488" s="14" t="s">
         <v>785</v>
-      </c>
-      <c r="M488" s="14" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N488" s="14" t="s">
-        <v>786</v>
       </c>
       <c r="W488" s="19">
         <v>41838</v>
@@ -17740,14 +17740,14 @@
     </row>
     <row r="489" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B489"/>
       <c r="C489" t="s">
+        <v>787</v>
+      </c>
+      <c r="N489" t="s">
         <v>788</v>
-      </c>
-      <c r="N489" t="s">
-        <v>789</v>
       </c>
       <c r="W489" s="20">
         <v>41502</v>
@@ -17758,14 +17758,14 @@
     </row>
     <row r="490" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B490"/>
       <c r="C490" t="s">
+        <v>790</v>
+      </c>
+      <c r="N490" t="s">
         <v>791</v>
-      </c>
-      <c r="N490" t="s">
-        <v>792</v>
       </c>
       <c r="W490" s="20">
         <v>41502</v>
@@ -17776,14 +17776,14 @@
     </row>
     <row r="491" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B491"/>
       <c r="C491" t="s">
+        <v>793</v>
+      </c>
+      <c r="N491" t="s">
         <v>794</v>
-      </c>
-      <c r="N491" t="s">
-        <v>795</v>
       </c>
       <c r="W491" s="20">
         <v>41502</v>
@@ -17794,14 +17794,14 @@
     </row>
     <row r="492" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B492"/>
       <c r="C492" t="s">
+        <v>796</v>
+      </c>
+      <c r="N492" t="s">
         <v>797</v>
-      </c>
-      <c r="N492" t="s">
-        <v>798</v>
       </c>
       <c r="W492" s="20">
         <v>41953</v>
@@ -17812,14 +17812,14 @@
     </row>
     <row r="493" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B493"/>
       <c r="C493" t="s">
+        <v>799</v>
+      </c>
+      <c r="N493" t="s">
         <v>800</v>
-      </c>
-      <c r="N493" t="s">
-        <v>801</v>
       </c>
       <c r="W493" s="20">
         <v>41502</v>
@@ -17830,14 +17830,14 @@
     </row>
     <row r="494" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B494"/>
       <c r="C494" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N494" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="W494" s="20">
         <v>41953</v>
@@ -17848,14 +17848,14 @@
     </row>
     <row r="495" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B495"/>
       <c r="C495" t="s">
+        <v>804</v>
+      </c>
+      <c r="N495" t="s">
         <v>805</v>
-      </c>
-      <c r="N495" t="s">
-        <v>806</v>
       </c>
       <c r="W495" s="20">
         <v>41502</v>
@@ -17866,14 +17866,14 @@
     </row>
     <row r="496" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B496"/>
       <c r="C496" t="s">
+        <v>807</v>
+      </c>
+      <c r="N496" t="s">
         <v>808</v>
-      </c>
-      <c r="N496" t="s">
-        <v>809</v>
       </c>
       <c r="W496" s="20">
         <v>41502</v>
@@ -17884,14 +17884,14 @@
     </row>
     <row r="497" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B497"/>
       <c r="C497" t="s">
+        <v>810</v>
+      </c>
+      <c r="N497" t="s">
         <v>811</v>
-      </c>
-      <c r="N497" t="s">
-        <v>812</v>
       </c>
       <c r="W497" s="20">
         <v>41953</v>
@@ -17902,14 +17902,14 @@
     </row>
     <row r="498" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B498"/>
       <c r="C498" t="s">
+        <v>813</v>
+      </c>
+      <c r="N498" t="s">
         <v>814</v>
-      </c>
-      <c r="N498" t="s">
-        <v>815</v>
       </c>
       <c r="W498" s="20">
         <v>41502</v>
@@ -17920,14 +17920,14 @@
     </row>
     <row r="499" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B499"/>
       <c r="C499" t="s">
+        <v>816</v>
+      </c>
+      <c r="N499" t="s">
         <v>817</v>
-      </c>
-      <c r="N499" t="s">
-        <v>818</v>
       </c>
       <c r="W499" s="20">
         <v>41502</v>
@@ -17938,14 +17938,14 @@
     </row>
     <row r="500" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B500"/>
       <c r="C500" t="s">
+        <v>819</v>
+      </c>
+      <c r="N500" t="s">
         <v>820</v>
-      </c>
-      <c r="N500" t="s">
-        <v>821</v>
       </c>
       <c r="W500" s="20">
         <v>41662</v>
@@ -17953,14 +17953,14 @@
     </row>
     <row r="501" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B501"/>
       <c r="C501" t="s">
+        <v>822</v>
+      </c>
+      <c r="N501" t="s">
         <v>823</v>
-      </c>
-      <c r="N501" t="s">
-        <v>824</v>
       </c>
       <c r="W501" s="20">
         <v>41682</v>
@@ -17968,14 +17968,14 @@
     </row>
     <row r="502" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B502"/>
       <c r="C502" t="s">
+        <v>825</v>
+      </c>
+      <c r="N502" t="s">
         <v>826</v>
-      </c>
-      <c r="N502" t="s">
-        <v>827</v>
       </c>
       <c r="W502" s="20">
         <v>41619</v>
@@ -17983,14 +17983,14 @@
     </row>
     <row r="503" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B503"/>
       <c r="C503" t="s">
+        <v>828</v>
+      </c>
+      <c r="N503" t="s">
         <v>829</v>
-      </c>
-      <c r="N503" t="s">
-        <v>830</v>
       </c>
       <c r="W503" s="20">
         <v>42289</v>
@@ -18001,14 +18001,14 @@
     </row>
     <row r="504" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B504"/>
       <c r="C504" t="s">
+        <v>831</v>
+      </c>
+      <c r="N504" t="s">
         <v>832</v>
-      </c>
-      <c r="N504" t="s">
-        <v>833</v>
       </c>
       <c r="W504" s="20">
         <v>41789</v>
@@ -18019,14 +18019,14 @@
     </row>
     <row r="505" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B505"/>
       <c r="C505" t="s">
+        <v>834</v>
+      </c>
+      <c r="N505" t="s">
         <v>835</v>
-      </c>
-      <c r="N505" t="s">
-        <v>836</v>
       </c>
       <c r="W505" s="20">
         <v>41908</v>
@@ -18037,14 +18037,14 @@
     </row>
     <row r="506" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B506"/>
       <c r="C506" t="s">
+        <v>837</v>
+      </c>
+      <c r="N506" t="s">
         <v>838</v>
-      </c>
-      <c r="N506" t="s">
-        <v>839</v>
       </c>
       <c r="W506" s="20">
         <v>41662</v>
@@ -18052,14 +18052,14 @@
     </row>
     <row r="507" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B507"/>
       <c r="C507" t="s">
+        <v>840</v>
+      </c>
+      <c r="N507" t="s">
         <v>841</v>
-      </c>
-      <c r="N507" t="s">
-        <v>842</v>
       </c>
       <c r="W507" s="20">
         <v>42289</v>
@@ -18070,14 +18070,14 @@
     </row>
     <row r="508" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B508"/>
       <c r="C508" t="s">
+        <v>843</v>
+      </c>
+      <c r="N508" t="s">
         <v>844</v>
-      </c>
-      <c r="N508" t="s">
-        <v>845</v>
       </c>
       <c r="W508" s="20">
         <v>42289</v>
@@ -18088,14 +18088,14 @@
     </row>
     <row r="509" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B509"/>
       <c r="C509" t="s">
+        <v>846</v>
+      </c>
+      <c r="N509" t="s">
         <v>847</v>
-      </c>
-      <c r="N509" t="s">
-        <v>848</v>
       </c>
       <c r="W509" s="20">
         <v>41676</v>
@@ -18103,14 +18103,14 @@
     </row>
     <row r="510" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B510"/>
       <c r="C510" t="s">
+        <v>849</v>
+      </c>
+      <c r="N510" t="s">
         <v>850</v>
-      </c>
-      <c r="N510" t="s">
-        <v>851</v>
       </c>
       <c r="W510" s="20">
         <v>41740</v>
@@ -18118,14 +18118,14 @@
     </row>
     <row r="511" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B511"/>
       <c r="C511" t="s">
+        <v>852</v>
+      </c>
+      <c r="N511" t="s">
         <v>853</v>
-      </c>
-      <c r="N511" t="s">
-        <v>854</v>
       </c>
       <c r="W511" s="20">
         <v>42416</v>
@@ -18136,14 +18136,14 @@
     </row>
     <row r="512" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B512"/>
       <c r="C512" t="s">
+        <v>855</v>
+      </c>
+      <c r="N512" t="s">
         <v>856</v>
-      </c>
-      <c r="N512" t="s">
-        <v>857</v>
       </c>
       <c r="W512" s="20">
         <v>42416</v>
@@ -18154,14 +18154,14 @@
     </row>
     <row r="513" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B513"/>
       <c r="C513" t="s">
+        <v>858</v>
+      </c>
+      <c r="N513" t="s">
         <v>859</v>
-      </c>
-      <c r="N513" t="s">
-        <v>860</v>
       </c>
       <c r="W513" s="20">
         <v>42416</v>
@@ -18172,14 +18172,14 @@
     </row>
     <row r="514" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B514"/>
       <c r="C514" t="s">
+        <v>861</v>
+      </c>
+      <c r="N514" t="s">
         <v>862</v>
-      </c>
-      <c r="N514" t="s">
-        <v>863</v>
       </c>
       <c r="W514" s="20">
         <v>42416</v>
@@ -18190,14 +18190,14 @@
     </row>
     <row r="515" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B515"/>
       <c r="C515" t="s">
+        <v>864</v>
+      </c>
+      <c r="N515" t="s">
         <v>865</v>
-      </c>
-      <c r="N515" t="s">
-        <v>866</v>
       </c>
       <c r="W515" s="20">
         <v>41954</v>
@@ -18208,14 +18208,14 @@
     </row>
     <row r="516" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B516"/>
       <c r="C516" t="s">
+        <v>867</v>
+      </c>
+      <c r="N516" t="s">
         <v>868</v>
-      </c>
-      <c r="N516" t="s">
-        <v>869</v>
       </c>
       <c r="W516" s="20">
         <v>42089</v>
@@ -18226,14 +18226,14 @@
     </row>
     <row r="517" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B517"/>
       <c r="C517" t="s">
+        <v>870</v>
+      </c>
+      <c r="N517" t="s">
         <v>871</v>
-      </c>
-      <c r="N517" t="s">
-        <v>872</v>
       </c>
       <c r="W517" s="20">
         <v>42424</v>
@@ -18244,14 +18244,14 @@
     </row>
     <row r="518" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B518"/>
       <c r="C518" t="s">
+        <v>873</v>
+      </c>
+      <c r="N518" t="s">
         <v>874</v>
-      </c>
-      <c r="N518" t="s">
-        <v>875</v>
       </c>
       <c r="W518" s="20">
         <v>41732</v>
@@ -18262,14 +18262,14 @@
     </row>
     <row r="519" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B519"/>
       <c r="C519" t="s">
+        <v>876</v>
+      </c>
+      <c r="N519" t="s">
         <v>877</v>
-      </c>
-      <c r="N519" t="s">
-        <v>878</v>
       </c>
       <c r="W519" s="20">
         <v>42033</v>
@@ -18280,14 +18280,14 @@
     </row>
     <row r="520" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B520"/>
       <c r="C520" t="s">
+        <v>879</v>
+      </c>
+      <c r="N520" t="s">
         <v>880</v>
-      </c>
-      <c r="N520" t="s">
-        <v>881</v>
       </c>
       <c r="W520" s="20">
         <v>42234</v>
@@ -18298,14 +18298,14 @@
     </row>
     <row r="521" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B521"/>
       <c r="C521" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="N521" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="W521" s="20">
         <v>42033</v>
@@ -18316,14 +18316,14 @@
     </row>
     <row r="522" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B522"/>
       <c r="C522" t="s">
+        <v>884</v>
+      </c>
+      <c r="N522" t="s">
         <v>885</v>
-      </c>
-      <c r="N522" t="s">
-        <v>886</v>
       </c>
       <c r="W522" s="20">
         <v>42555</v>
@@ -18334,14 +18334,14 @@
     </row>
     <row r="523" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B523"/>
       <c r="C523" t="s">
+        <v>887</v>
+      </c>
+      <c r="N523" t="s">
         <v>888</v>
-      </c>
-      <c r="N523" t="s">
-        <v>889</v>
       </c>
       <c r="W523" s="20">
         <v>41599</v>
@@ -18349,11 +18349,11 @@
     </row>
     <row r="524" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B524"/>
       <c r="C524" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D524" s="10"/>
       <c r="E524" s="10"/>
@@ -18366,7 +18366,7 @@
       <c r="L524" s="10"/>
       <c r="M524" s="10"/>
       <c r="N524" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="W524" s="20">
         <v>41654</v>
@@ -18374,14 +18374,14 @@
     </row>
     <row r="525" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B525"/>
       <c r="C525" t="s">
+        <v>893</v>
+      </c>
+      <c r="N525" t="s">
         <v>894</v>
-      </c>
-      <c r="N525" t="s">
-        <v>895</v>
       </c>
       <c r="W525" s="20">
         <v>41599</v>
@@ -18389,14 +18389,14 @@
     </row>
     <row r="526" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B526"/>
       <c r="C526" t="s">
+        <v>896</v>
+      </c>
+      <c r="N526" t="s">
         <v>897</v>
-      </c>
-      <c r="N526" t="s">
-        <v>898</v>
       </c>
       <c r="W526" s="20">
         <v>41967</v>
@@ -18407,14 +18407,14 @@
     </row>
     <row r="527" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B527"/>
       <c r="C527" t="s">
+        <v>899</v>
+      </c>
+      <c r="N527" t="s">
         <v>900</v>
-      </c>
-      <c r="N527" t="s">
-        <v>901</v>
       </c>
       <c r="W527" s="20">
         <v>41857</v>
@@ -18425,14 +18425,14 @@
     </row>
     <row r="528" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B528"/>
       <c r="C528" t="s">
+        <v>902</v>
+      </c>
+      <c r="N528" t="s">
         <v>903</v>
-      </c>
-      <c r="N528" t="s">
-        <v>904</v>
       </c>
       <c r="W528" s="20">
         <v>41829</v>
@@ -18440,14 +18440,14 @@
     </row>
     <row r="529" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B529"/>
       <c r="C529" t="s">
+        <v>905</v>
+      </c>
+      <c r="N529" t="s">
         <v>906</v>
-      </c>
-      <c r="N529" t="s">
-        <v>907</v>
       </c>
       <c r="W529" s="20">
         <v>41829</v>
@@ -18455,14 +18455,14 @@
     </row>
     <row r="530" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B530"/>
       <c r="C530" t="s">
+        <v>908</v>
+      </c>
+      <c r="N530" t="s">
         <v>909</v>
-      </c>
-      <c r="N530" t="s">
-        <v>910</v>
       </c>
       <c r="W530" s="20">
         <v>41683</v>
@@ -18470,14 +18470,14 @@
     </row>
     <row r="531" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B531"/>
       <c r="C531" t="s">
+        <v>911</v>
+      </c>
+      <c r="N531" t="s">
         <v>912</v>
-      </c>
-      <c r="N531" t="s">
-        <v>913</v>
       </c>
       <c r="W531" s="20">
         <v>41520</v>
@@ -18488,14 +18488,14 @@
     </row>
     <row r="532" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B532"/>
       <c r="C532" t="s">
+        <v>914</v>
+      </c>
+      <c r="N532" t="s">
         <v>915</v>
-      </c>
-      <c r="N532" t="s">
-        <v>916</v>
       </c>
       <c r="W532" s="20">
         <v>42017</v>
@@ -18506,14 +18506,14 @@
     </row>
     <row r="533" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B533"/>
       <c r="C533" t="s">
+        <v>917</v>
+      </c>
+      <c r="N533" t="s">
         <v>918</v>
-      </c>
-      <c r="N533" t="s">
-        <v>919</v>
       </c>
       <c r="W533" s="20">
         <v>41502</v>
@@ -18524,14 +18524,14 @@
     </row>
     <row r="534" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B534"/>
       <c r="C534" t="s">
+        <v>920</v>
+      </c>
+      <c r="N534" t="s">
         <v>921</v>
-      </c>
-      <c r="N534" t="s">
-        <v>922</v>
       </c>
       <c r="W534" s="20">
         <v>41743</v>
@@ -18542,14 +18542,14 @@
     </row>
     <row r="535" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B535"/>
       <c r="C535" t="s">
+        <v>923</v>
+      </c>
+      <c r="N535" t="s">
         <v>924</v>
-      </c>
-      <c r="N535" t="s">
-        <v>925</v>
       </c>
       <c r="W535" s="20">
         <v>41520</v>
@@ -18560,14 +18560,14 @@
     </row>
     <row r="536" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B536"/>
       <c r="C536" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N536" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="W536" s="20">
         <v>42270</v>
@@ -18578,14 +18578,14 @@
     </row>
     <row r="537" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B537"/>
       <c r="C537" t="s">
+        <v>928</v>
+      </c>
+      <c r="N537" t="s">
         <v>929</v>
-      </c>
-      <c r="N537" t="s">
-        <v>930</v>
       </c>
       <c r="W537" s="20">
         <v>42270</v>
@@ -18596,14 +18596,14 @@
     </row>
     <row r="538" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B538"/>
       <c r="C538" t="s">
+        <v>931</v>
+      </c>
+      <c r="N538" t="s">
         <v>932</v>
-      </c>
-      <c r="N538" t="s">
-        <v>933</v>
       </c>
       <c r="W538" s="20">
         <v>42270</v>
@@ -18614,14 +18614,14 @@
     </row>
     <row r="539" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B539"/>
       <c r="C539" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N539" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="W539" s="20">
         <v>42270</v>
@@ -18632,14 +18632,14 @@
     </row>
     <row r="540" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B540"/>
       <c r="C540" t="s">
+        <v>936</v>
+      </c>
+      <c r="N540" t="s">
         <v>937</v>
-      </c>
-      <c r="N540" t="s">
-        <v>938</v>
       </c>
       <c r="W540" s="20">
         <v>41502</v>
@@ -18650,14 +18650,14 @@
     </row>
     <row r="541" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B541"/>
       <c r="C541" t="s">
+        <v>939</v>
+      </c>
+      <c r="N541" t="s">
         <v>940</v>
-      </c>
-      <c r="N541" t="s">
-        <v>941</v>
       </c>
       <c r="W541" s="20">
         <v>41660</v>
@@ -18665,14 +18665,14 @@
     </row>
     <row r="542" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B542"/>
       <c r="C542" t="s">
+        <v>942</v>
+      </c>
+      <c r="N542" t="s">
         <v>943</v>
-      </c>
-      <c r="N542" t="s">
-        <v>944</v>
       </c>
       <c r="W542" s="20">
         <v>42270</v>
@@ -18683,14 +18683,14 @@
     </row>
     <row r="543" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B543"/>
       <c r="C543" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N543" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="W543" s="20">
         <v>42270</v>
@@ -18701,14 +18701,14 @@
     </row>
     <row r="544" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B544"/>
       <c r="C544" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N544" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="W544" s="20">
         <v>42270</v>
@@ -18719,14 +18719,14 @@
     </row>
     <row r="545" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B545"/>
       <c r="C545" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="N545" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="W545" s="20">
         <v>41502</v>
@@ -18737,14 +18737,14 @@
     </row>
     <row r="546" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B546"/>
       <c r="C546" t="s">
+        <v>950</v>
+      </c>
+      <c r="N546" t="s">
         <v>951</v>
-      </c>
-      <c r="N546" t="s">
-        <v>952</v>
       </c>
       <c r="W546" s="20">
         <v>42270</v>
@@ -18755,14 +18755,14 @@
     </row>
     <row r="547" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B547"/>
       <c r="C547" t="s">
+        <v>953</v>
+      </c>
+      <c r="N547" t="s">
         <v>954</v>
-      </c>
-      <c r="N547" t="s">
-        <v>955</v>
       </c>
       <c r="W547" s="20">
         <v>41502</v>
@@ -18773,14 +18773,14 @@
     </row>
     <row r="548" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B548"/>
       <c r="C548" t="s">
+        <v>956</v>
+      </c>
+      <c r="N548" t="s">
         <v>957</v>
-      </c>
-      <c r="N548" t="s">
-        <v>958</v>
       </c>
       <c r="W548" s="20">
         <v>42270</v>
@@ -18791,14 +18791,14 @@
     </row>
     <row r="549" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B549"/>
       <c r="C549" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N549" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="W549" s="20">
         <v>42270</v>
@@ -18809,14 +18809,14 @@
     </row>
     <row r="550" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B550"/>
       <c r="C550" t="s">
+        <v>961</v>
+      </c>
+      <c r="N550" t="s">
         <v>962</v>
-      </c>
-      <c r="N550" t="s">
-        <v>963</v>
       </c>
       <c r="W550" s="20">
         <v>42270</v>
@@ -18827,14 +18827,14 @@
     </row>
     <row r="551" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B551"/>
       <c r="C551" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="N551" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="W551" s="20">
         <v>42270</v>
@@ -18845,14 +18845,14 @@
     </row>
     <row r="552" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B552"/>
       <c r="C552" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N552" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="W552" s="20">
         <v>41733</v>
@@ -18860,14 +18860,14 @@
     </row>
     <row r="553" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B553"/>
       <c r="C553" t="s">
+        <v>968</v>
+      </c>
+      <c r="N553" t="s">
         <v>969</v>
-      </c>
-      <c r="N553" t="s">
-        <v>970</v>
       </c>
       <c r="W553" s="20">
         <v>41597</v>
@@ -18875,14 +18875,14 @@
     </row>
     <row r="554" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B554"/>
       <c r="C554" t="s">
+        <v>971</v>
+      </c>
+      <c r="N554" t="s">
         <v>972</v>
-      </c>
-      <c r="N554" t="s">
-        <v>973</v>
       </c>
       <c r="W554" s="20">
         <v>41597</v>
@@ -18890,14 +18890,14 @@
     </row>
     <row r="555" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B555"/>
       <c r="C555" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N555" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="W555" s="20">
         <v>41963</v>
@@ -18908,14 +18908,14 @@
     </row>
     <row r="556" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B556"/>
       <c r="C556" t="s">
+        <v>976</v>
+      </c>
+      <c r="N556" t="s">
         <v>977</v>
-      </c>
-      <c r="N556" t="s">
-        <v>978</v>
       </c>
       <c r="W556" s="20">
         <v>41963</v>
@@ -18926,14 +18926,14 @@
     </row>
     <row r="557" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B557"/>
       <c r="C557" t="s">
+        <v>979</v>
+      </c>
+      <c r="N557" t="s">
         <v>980</v>
-      </c>
-      <c r="N557" t="s">
-        <v>981</v>
       </c>
       <c r="W557" s="20">
         <v>41655</v>
@@ -18941,14 +18941,14 @@
     </row>
     <row r="558" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B558"/>
       <c r="C558" t="s">
+        <v>982</v>
+      </c>
+      <c r="N558" t="s">
         <v>983</v>
-      </c>
-      <c r="N558" t="s">
-        <v>984</v>
       </c>
       <c r="W558" s="20">
         <v>42408</v>
@@ -18959,14 +18959,14 @@
     </row>
     <row r="559" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B559"/>
       <c r="C559" t="s">
+        <v>985</v>
+      </c>
+      <c r="N559" t="s">
         <v>986</v>
-      </c>
-      <c r="N559" t="s">
-        <v>987</v>
       </c>
       <c r="W559" s="20">
         <v>41803</v>
@@ -18977,14 +18977,14 @@
     </row>
     <row r="560" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B560"/>
       <c r="C560" t="s">
+        <v>988</v>
+      </c>
+      <c r="N560" t="s">
         <v>989</v>
-      </c>
-      <c r="N560" t="s">
-        <v>990</v>
       </c>
       <c r="W560" s="20">
         <v>41738</v>
@@ -18995,14 +18995,14 @@
     </row>
     <row r="561" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B561"/>
       <c r="C561" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N561" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="W561" s="20">
         <v>42087</v>
@@ -19013,14 +19013,14 @@
     </row>
     <row r="562" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B562"/>
       <c r="C562" t="s">
+        <v>993</v>
+      </c>
+      <c r="N562" t="s">
         <v>994</v>
-      </c>
-      <c r="N562" t="s">
-        <v>995</v>
       </c>
       <c r="W562" s="20">
         <v>41506</v>
@@ -19028,14 +19028,14 @@
     </row>
     <row r="563" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B563"/>
       <c r="C563" t="s">
+        <v>996</v>
+      </c>
+      <c r="N563" t="s">
         <v>997</v>
-      </c>
-      <c r="N563" t="s">
-        <v>998</v>
       </c>
       <c r="W563" s="20">
         <v>42087</v>
@@ -19046,14 +19046,14 @@
     </row>
     <row r="564" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B564"/>
       <c r="C564" t="s">
+        <v>999</v>
+      </c>
+      <c r="N564" t="s">
         <v>1000</v>
-      </c>
-      <c r="N564" t="s">
-        <v>1001</v>
       </c>
       <c r="W564" s="20">
         <v>41803</v>
@@ -19064,14 +19064,14 @@
     </row>
     <row r="565" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B565"/>
       <c r="C565" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N565" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W565" s="20">
         <v>41605</v>
@@ -19079,14 +19079,14 @@
     </row>
     <row r="566" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B566"/>
       <c r="C566" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N566" t="s">
         <v>1005</v>
-      </c>
-      <c r="N566" t="s">
-        <v>1006</v>
       </c>
       <c r="W566" s="20">
         <v>41754</v>
@@ -19097,14 +19097,14 @@
     </row>
     <row r="567" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B567"/>
       <c r="C567" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N567" t="s">
         <v>1008</v>
-      </c>
-      <c r="N567" t="s">
-        <v>1009</v>
       </c>
       <c r="W567" s="20">
         <v>41605</v>
@@ -19112,14 +19112,14 @@
     </row>
     <row r="568" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B568"/>
       <c r="C568" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N568" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="W568" s="20">
         <v>41668</v>
@@ -19127,14 +19127,14 @@
     </row>
     <row r="569" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B569"/>
       <c r="C569" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N569" t="s">
         <v>1013</v>
-      </c>
-      <c r="N569" t="s">
-        <v>1014</v>
       </c>
       <c r="W569" s="20">
         <v>41502</v>
@@ -19145,14 +19145,14 @@
     </row>
     <row r="570" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B570"/>
       <c r="C570" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N570" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="W570" s="20">
         <v>41502</v>
@@ -19163,14 +19163,14 @@
     </row>
     <row r="571" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B571"/>
       <c r="C571" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N571" t="s">
         <v>1018</v>
-      </c>
-      <c r="N571" t="s">
-        <v>1019</v>
       </c>
       <c r="W571" s="20">
         <v>42416</v>
@@ -19181,14 +19181,14 @@
     </row>
     <row r="572" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B572"/>
       <c r="C572" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N572" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="W572" s="20">
         <v>41502</v>
@@ -19199,14 +19199,14 @@
     </row>
     <row r="573" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B573"/>
       <c r="C573" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N573" t="s">
         <v>1023</v>
-      </c>
-      <c r="N573" t="s">
-        <v>1024</v>
       </c>
       <c r="W573" s="20">
         <v>42237</v>
@@ -19217,14 +19217,14 @@
     </row>
     <row r="574" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B574"/>
       <c r="C574" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N574" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W574" s="20">
         <v>41675</v>
@@ -19232,14 +19232,14 @@
     </row>
     <row r="575" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B575"/>
       <c r="C575" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N575" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="W575" s="20">
         <v>42416</v>
@@ -19250,14 +19250,14 @@
     </row>
     <row r="576" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B576"/>
       <c r="C576" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N576" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="W576" s="20">
         <v>42416</v>
@@ -19268,14 +19268,14 @@
     </row>
     <row r="577" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B577"/>
       <c r="C577" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N577" t="s">
         <v>1032</v>
-      </c>
-      <c r="N577" t="s">
-        <v>1033</v>
       </c>
       <c r="W577" s="20">
         <v>41502</v>
@@ -19286,14 +19286,14 @@
     </row>
     <row r="578" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B578"/>
       <c r="C578" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N578" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="W578" s="20">
         <v>41606</v>
@@ -19301,10 +19301,10 @@
     </row>
     <row r="579" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A579" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C579" s="14" t="s">
         <v>1036</v>
-      </c>
-      <c r="C579" s="14" t="s">
-        <v>1037</v>
       </c>
       <c r="D579" s="14" t="s">
         <v>595</v>
@@ -19313,27 +19313,27 @@
         <v>610</v>
       </c>
       <c r="F579" s="17" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G579" s="21" t="s">
         <v>612</v>
       </c>
       <c r="H579" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I579" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="I579" s="21" t="s">
+      <c r="J579" s="22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K579" s="22" t="s">
         <v>1040</v>
-      </c>
-      <c r="J579" s="22" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K579" s="22" t="s">
-        <v>1041</v>
       </c>
       <c r="L579" s="21"/>
       <c r="M579" s="21"/>
       <c r="N579" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W579" s="19">
         <v>41682</v>
@@ -19341,14 +19341,14 @@
     </row>
     <row r="580" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B580"/>
       <c r="C580" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N580" t="s">
         <v>1044</v>
-      </c>
-      <c r="N580" t="s">
-        <v>1045</v>
       </c>
       <c r="W580" s="20">
         <v>41502</v>
@@ -19359,12 +19359,12 @@
     </row>
     <row r="581" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B581"/>
       <c r="C581"/>
       <c r="N581" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W581" s="20">
         <v>42030</v>
@@ -19375,25 +19375,25 @@
     </row>
     <row r="582" spans="1:24" s="14" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A582" s="14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C582" s="14" t="s">
         <v>1048</v>
-      </c>
-      <c r="C582" s="14" t="s">
-        <v>1049</v>
       </c>
       <c r="D582" s="14" t="s">
         <v>613</v>
       </c>
       <c r="G582" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H582" s="14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J582" s="17" t="s">
         <v>1145</v>
       </c>
-      <c r="H582" s="14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J582" s="17" t="s">
-        <v>1146</v>
-      </c>
       <c r="N582" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="W582" s="19">
         <v>41759</v>
@@ -19404,14 +19404,14 @@
     </row>
     <row r="583" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B583"/>
       <c r="C583" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N583" t="s">
         <v>1052</v>
-      </c>
-      <c r="N583" t="s">
-        <v>1053</v>
       </c>
       <c r="W583" s="20">
         <v>42416</v>
@@ -19422,14 +19422,14 @@
     </row>
     <row r="584" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B584"/>
       <c r="C584" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N584" t="s">
         <v>1055</v>
-      </c>
-      <c r="N584" t="s">
-        <v>1056</v>
       </c>
       <c r="W584" s="20">
         <v>41597</v>
@@ -19440,14 +19440,14 @@
     </row>
     <row r="585" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B585"/>
       <c r="C585" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N585" t="s">
         <v>1058</v>
-      </c>
-      <c r="N585" t="s">
-        <v>1059</v>
       </c>
       <c r="W585" s="20">
         <v>41683</v>
@@ -19455,11 +19455,11 @@
     </row>
     <row r="586" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B586"/>
       <c r="C586" s="10" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D586" s="10"/>
       <c r="E586" s="10"/>
@@ -19472,7 +19472,7 @@
       <c r="L586" s="10"/>
       <c r="M586" s="10"/>
       <c r="N586" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="W586" s="20">
         <v>41732</v>
@@ -19483,14 +19483,14 @@
     </row>
     <row r="587" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B587"/>
       <c r="C587" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N587" t="s">
         <v>1064</v>
-      </c>
-      <c r="N587" t="s">
-        <v>1065</v>
       </c>
       <c r="W587" s="20">
         <v>41782</v>
@@ -19501,14 +19501,14 @@
     </row>
     <row r="588" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B588"/>
       <c r="C588" t="s">
+        <v>1066</v>
+      </c>
+      <c r="N588" t="s">
         <v>1067</v>
-      </c>
-      <c r="N588" t="s">
-        <v>1068</v>
       </c>
       <c r="W588" s="20">
         <v>42270</v>
@@ -19519,14 +19519,14 @@
     </row>
     <row r="589" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B589"/>
       <c r="C589" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N589" t="s">
         <v>1070</v>
-      </c>
-      <c r="N589" t="s">
-        <v>1071</v>
       </c>
       <c r="W589" s="20">
         <v>41502</v>
@@ -19537,14 +19537,14 @@
     </row>
     <row r="590" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B590"/>
       <c r="C590" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N590" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="W590" s="20">
         <v>42303</v>
@@ -19555,14 +19555,14 @@
     </row>
     <row r="591" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B591"/>
       <c r="C591" t="s">
+        <v>1074</v>
+      </c>
+      <c r="N591" t="s">
         <v>1075</v>
-      </c>
-      <c r="N591" t="s">
-        <v>1076</v>
       </c>
       <c r="W591" s="20">
         <v>41824</v>
@@ -19573,14 +19573,14 @@
     </row>
     <row r="592" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B592"/>
       <c r="C592" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N592" t="s">
         <v>1078</v>
-      </c>
-      <c r="N592" t="s">
-        <v>1079</v>
       </c>
       <c r="W592" s="20">
         <v>41824</v>
@@ -19591,14 +19591,14 @@
     </row>
     <row r="593" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B593"/>
       <c r="C593" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N593" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W593" s="20">
         <v>42321</v>
@@ -19609,14 +19609,14 @@
     </row>
     <row r="594" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B594"/>
       <c r="C594" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N594" t="s">
         <v>1083</v>
-      </c>
-      <c r="N594" t="s">
-        <v>1084</v>
       </c>
       <c r="W594" s="20">
         <v>42087</v>
@@ -19627,11 +19627,11 @@
     </row>
     <row r="595" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B595"/>
       <c r="C595" s="10" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D595" s="10"/>
       <c r="E595" s="10"/>
@@ -19644,7 +19644,7 @@
       <c r="L595" s="10"/>
       <c r="M595" s="10"/>
       <c r="N595" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="W595" s="20">
         <v>41704</v>
@@ -19655,14 +19655,14 @@
     </row>
     <row r="596" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B596"/>
       <c r="C596" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N596" t="s">
         <v>1089</v>
-      </c>
-      <c r="N596" t="s">
-        <v>1090</v>
       </c>
       <c r="W596" s="20">
         <v>42416</v>
@@ -19673,14 +19673,14 @@
     </row>
     <row r="597" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B597"/>
       <c r="C597" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N597" t="s">
         <v>1092</v>
-      </c>
-      <c r="N597" t="s">
-        <v>1093</v>
       </c>
       <c r="W597" s="20">
         <v>42121</v>
@@ -19691,14 +19691,14 @@
     </row>
     <row r="598" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B598"/>
       <c r="C598" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N598" t="s">
         <v>1095</v>
-      </c>
-      <c r="N598" t="s">
-        <v>1096</v>
       </c>
       <c r="W598" s="20">
         <v>42121</v>
@@ -19709,14 +19709,14 @@
     </row>
     <row r="599" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B599"/>
       <c r="C599" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N599" t="s">
         <v>1098</v>
-      </c>
-      <c r="N599" t="s">
-        <v>1099</v>
       </c>
       <c r="W599" s="20">
         <v>41838</v>
@@ -19727,14 +19727,14 @@
     </row>
     <row r="600" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B600"/>
       <c r="C600" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N600" t="s">
         <v>1101</v>
-      </c>
-      <c r="N600" t="s">
-        <v>1102</v>
       </c>
       <c r="W600" s="20">
         <v>42121</v>
@@ -19745,14 +19745,14 @@
     </row>
     <row r="601" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B601"/>
       <c r="C601" t="s">
         <v>784</v>
       </c>
       <c r="N601" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W601" s="20">
         <v>41831</v>
@@ -19763,14 +19763,14 @@
     </row>
     <row r="602" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B602"/>
       <c r="C602" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="N602" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="W602" s="20">
         <v>41908</v>
@@ -19781,14 +19781,14 @@
     </row>
     <row r="603" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B603"/>
       <c r="C603" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N603" t="s">
         <v>1108</v>
-      </c>
-      <c r="N603" t="s">
-        <v>1109</v>
       </c>
       <c r="W603" s="20">
         <v>41799</v>
@@ -19799,14 +19799,14 @@
     </row>
     <row r="604" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B604"/>
       <c r="C604" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N604" t="s">
         <v>1111</v>
-      </c>
-      <c r="N604" t="s">
-        <v>1112</v>
       </c>
       <c r="W604" s="20">
         <v>42234</v>
@@ -19817,14 +19817,14 @@
     </row>
     <row r="605" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B605"/>
       <c r="C605" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N605" t="s">
         <v>1114</v>
-      </c>
-      <c r="N605" t="s">
-        <v>1115</v>
       </c>
       <c r="W605" s="20">
         <v>42030</v>
@@ -19835,14 +19835,14 @@
     </row>
     <row r="606" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B606"/>
       <c r="C606" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N606" t="s">
         <v>1117</v>
-      </c>
-      <c r="N606" t="s">
-        <v>1118</v>
       </c>
       <c r="W606" s="20">
         <v>42031</v>
@@ -19853,14 +19853,14 @@
     </row>
     <row r="607" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B607"/>
       <c r="C607" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N607" t="s">
         <v>1120</v>
-      </c>
-      <c r="N607" t="s">
-        <v>1121</v>
       </c>
       <c r="W607" s="20">
         <v>42030</v>
@@ -19871,14 +19871,14 @@
     </row>
     <row r="608" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B608"/>
       <c r="C608" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="N608" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="W608" s="20">
         <v>42030</v>
@@ -19889,14 +19889,14 @@
     </row>
     <row r="609" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B609"/>
       <c r="C609" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N609" t="s">
         <v>1125</v>
-      </c>
-      <c r="N609" t="s">
-        <v>1126</v>
       </c>
       <c r="W609" s="20">
         <v>41967</v>
@@ -19907,14 +19907,14 @@
     </row>
     <row r="610" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B610"/>
       <c r="C610" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N610" t="s">
         <v>1128</v>
-      </c>
-      <c r="N610" t="s">
-        <v>1129</v>
       </c>
       <c r="W610" s="20">
         <v>42110</v>
@@ -19925,14 +19925,14 @@
     </row>
     <row r="611" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B611"/>
       <c r="C611" t="s">
+        <v>1130</v>
+      </c>
+      <c r="N611" t="s">
         <v>1131</v>
-      </c>
-      <c r="N611" t="s">
-        <v>1132</v>
       </c>
       <c r="W611" s="20">
         <v>42110</v>
@@ -19943,14 +19943,14 @@
     </row>
     <row r="612" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B612"/>
       <c r="C612" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="N612" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W612" s="20">
         <v>42270</v>
@@ -19961,14 +19961,14 @@
     </row>
     <row r="613" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B613"/>
       <c r="C613" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N613" t="s">
         <v>1136</v>
-      </c>
-      <c r="N613" t="s">
-        <v>1137</v>
       </c>
       <c r="W613" s="20">
         <v>42270</v>
@@ -19979,14 +19979,14 @@
     </row>
     <row r="614" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B614"/>
       <c r="C614" t="s">
+        <v>1138</v>
+      </c>
+      <c r="N614" t="s">
         <v>1139</v>
-      </c>
-      <c r="N614" t="s">
-        <v>1140</v>
       </c>
       <c r="W614" s="20">
         <v>42212</v>
@@ -19997,10 +19997,10 @@
     </row>
     <row r="615" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A615" s="14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C615" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D615" s="14" t="s">
         <v>615</v>
@@ -20009,7 +20009,7 @@
         <v>616</v>
       </c>
       <c r="N615" s="14" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="W615" s="19">
         <v>42416</v>
@@ -20025,6 +20025,7 @@
     <hyperlink ref="J579" r:id="rId3"/>
     <hyperlink ref="K579" r:id="rId4"/>
     <hyperlink ref="J582" r:id="rId5"/>
+    <hyperlink ref="L488"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -20203,15 +20204,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D471ADE-C831-4468-A591-8F9967173829}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="42bc507e-82e2-409b-b9dc-50a6d89f79c8"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
